--- a/student.xlsx
+++ b/student.xlsx
@@ -510,8 +510,13 @@
       <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="1" t="n">
         <v>43.39</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -535,8 +540,13 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>56.52</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -560,8 +570,13 @@
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>38.24</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -585,8 +600,13 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="1" t="n">
         <v>85.38</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -610,8 +630,13 @@
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="1" t="n">
         <v>48.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -635,8 +660,13 @@
       <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="1" t="n">
         <v>36.02</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -660,8 +690,13 @@
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="1" t="n">
         <v>62.01000000000001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -685,8 +720,13 @@
       <c r="F9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="1" t="n">
         <v>57.64</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -710,8 +750,13 @@
       <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="1" t="n">
         <v>55.35999999999999</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -735,8 +780,13 @@
       <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="1" t="n">
         <v>67.46000000000001</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -760,8 +810,13 @@
       <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="1" t="n">
         <v>51.35</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -785,8 +840,13 @@
       <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="1" t="n">
         <v>77.16</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -810,8 +870,13 @@
       <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="1" t="n">
         <v>33.64</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -835,8 +900,13 @@
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="1" t="n">
         <v>66.44999999999999</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -860,8 +930,13 @@
       <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="1" t="n">
         <v>73.55</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -885,8 +960,13 @@
       <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="1" t="n">
         <v>60.27</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -910,8 +990,13 @@
       <c r="F18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="1" t="n">
         <v>48.77</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -935,8 +1020,13 @@
       <c r="F19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="1" t="n">
         <v>30.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -960,8 +1050,13 @@
       <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="1" t="n">
         <v>77.56999999999999</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -985,8 +1080,13 @@
       <c r="F21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="1" t="n">
         <v>58.53999999999999</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1010,8 +1110,13 @@
       <c r="F22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="1" t="n">
         <v>57.89</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1035,8 +1140,13 @@
       <c r="F23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="1" t="n">
         <v>49.63</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1060,8 +1170,13 @@
       <c r="F24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="1" t="n">
         <v>38.09999999999999</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1085,8 +1200,13 @@
       <c r="F25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="1" t="n">
         <v>35.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1110,8 +1230,13 @@
       <c r="F26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="1" t="n">
         <v>73.89999999999999</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1135,8 +1260,13 @@
       <c r="F27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="1" t="n">
         <v>43.37</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1160,8 +1290,13 @@
       <c r="F28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="1" t="n">
         <v>37.76000000000001</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1185,8 +1320,13 @@
       <c r="F29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="1" t="n">
         <v>27.69</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1210,8 +1350,13 @@
       <c r="F30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="1" t="n">
         <v>80.2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1235,8 +1380,13 @@
       <c r="F31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="1" t="n">
         <v>83.21000000000001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1260,8 +1410,13 @@
       <c r="F32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="1" t="n">
         <v>60.95</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1285,8 +1440,13 @@
       <c r="F33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="1" t="n">
         <v>31.66</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1310,8 +1470,13 @@
       <c r="F34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="1" t="n">
         <v>68.68000000000001</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1335,8 +1500,13 @@
       <c r="F35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="1" t="n">
         <v>42.71</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1360,8 +1530,13 @@
       <c r="F36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="1" t="n">
         <v>66.08</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1385,8 +1560,13 @@
       <c r="F37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="1" t="n">
         <v>50.14</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1410,8 +1590,13 @@
       <c r="F38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="1" t="n">
         <v>47.61</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1435,8 +1620,13 @@
       <c r="F39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="1" t="n">
         <v>23.19</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1460,8 +1650,13 @@
       <c r="F40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="1" t="n">
         <v>69.85000000000001</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1485,8 +1680,13 @@
       <c r="F41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="1" t="n">
         <v>54.85</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1510,8 +1710,13 @@
       <c r="F42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="1" t="n">
         <v>40.42</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1535,8 +1740,13 @@
       <c r="F43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="1" t="n">
         <v>70.52000000000001</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1560,8 +1770,13 @@
       <c r="F44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="1" t="n">
         <v>38.12</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1585,8 +1800,13 @@
       <c r="F45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="1" t="n">
         <v>59.28</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1610,8 +1830,13 @@
       <c r="F46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="1" t="n">
         <v>20.07</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1635,8 +1860,13 @@
       <c r="F47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="1" t="n">
         <v>65.59999999999999</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1660,8 +1890,13 @@
       <c r="F48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="1" t="n">
         <v>17.88</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1685,8 +1920,13 @@
       <c r="F49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="1" t="n">
         <v>22.24</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1710,8 +1950,13 @@
       <c r="F50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="1" t="n">
         <v>70.89</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1735,8 +1980,13 @@
       <c r="F51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="1" t="n">
         <v>53.12</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1760,8 +2010,13 @@
       <c r="F52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="1" t="n">
         <v>38.98</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1785,8 +2040,13 @@
       <c r="F53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="1" t="n">
         <v>78.33</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1810,8 +2070,13 @@
       <c r="F54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="1" t="n">
         <v>73.54000000000001</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1835,8 +2100,13 @@
       <c r="F55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="1" t="n">
         <v>32.56</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1860,8 +2130,13 @@
       <c r="F56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="1" t="n">
         <v>48.05</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1885,8 +2160,13 @@
       <c r="F57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="1" t="n">
         <v>57.24</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1910,8 +2190,13 @@
       <c r="F58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="1" t="n">
         <v>66.64</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1935,8 +2220,13 @@
       <c r="F59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="1" t="n">
         <v>43.82</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1960,8 +2250,13 @@
       <c r="F60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="1" t="n">
         <v>59.58999999999999</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1985,8 +2280,13 @@
       <c r="F61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="1" t="n">
         <v>41.98</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2010,8 +2310,13 @@
       <c r="F62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="1" t="n">
         <v>23.57</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2035,8 +2340,13 @@
       <c r="F63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="1" t="n">
         <v>38.73</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2060,8 +2370,13 @@
       <c r="F64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="1" t="n">
         <v>38.43</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2085,8 +2400,13 @@
       <c r="F65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="1" t="n">
         <v>51.89</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2110,8 +2430,13 @@
       <c r="F66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="1" t="n">
         <v>26.15</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2135,8 +2460,13 @@
       <c r="F67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="1" t="n">
         <v>42.18000000000001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2160,8 +2490,13 @@
       <c r="F68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2185,8 +2520,13 @@
       <c r="F69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="1" t="n">
         <v>62.75</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2210,8 +2550,13 @@
       <c r="F70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="1" t="n">
         <v>79.86</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2235,8 +2580,13 @@
       <c r="F71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="1" t="n">
         <v>25.81</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2260,8 +2610,13 @@
       <c r="F72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="1" t="n">
         <v>81.02</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2285,8 +2640,13 @@
       <c r="F73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="1" t="n">
         <v>37.04</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2310,8 +2670,13 @@
       <c r="F74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="1" t="n">
         <v>44.5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2335,8 +2700,13 @@
       <c r="F75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="1" t="n">
         <v>44.9</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
       </c>
     </row>
   </sheetData>
